--- a/데이터베이스 테이블/패키지 구조.xlsx
+++ b/데이터베이스 테이블/패키지 구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\새 폴더 (2)\project_file\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517487A-A076-4B79-B649-038BA95ADC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF5E38-833A-4F51-8620-396129F41687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="240" windowWidth="24735" windowHeight="13680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13170" yWindow="1530" windowWidth="21810" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>com/emp</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>권재균 / 전재율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>직원등록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -375,6 +371,14 @@
   </si>
   <si>
     <t>/manage/empView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권재균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전재율</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,6 +684,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,22 +765,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1046,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,496 +1088,502 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="42" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>83</v>
+      <c r="H14" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="33" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="23" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="24"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="45"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="41" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="18" t="s">
         <v>82</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="25"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="45"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H23"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="H25:H36"/>
@@ -1588,12 +1598,10 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="F4:F13"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="H14:H23"/>
     <mergeCell ref="F25:F31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="F32:F36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>